--- a/natmiOut/OldD7/LR-pairs_lrc2p/Bmp4-Bmpr1a.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Bmp4-Bmpr1a.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -89,6 +89,9 @@
   </si>
   <si>
     <t>Bmpr1a</t>
+  </si>
+  <si>
+    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -446,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>8.17947662576616</v>
+        <v>8.351570000000001</v>
       </c>
       <c r="H2">
-        <v>8.17947662576616</v>
+        <v>25.05471</v>
       </c>
       <c r="I2">
-        <v>0.3914697511322308</v>
+        <v>0.3629556103554933</v>
       </c>
       <c r="J2">
-        <v>0.3914697511322308</v>
+        <v>0.3629556103554933</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.84962808521901</v>
+        <v>5.722664999999999</v>
       </c>
       <c r="N2">
-        <v>4.84962808521901</v>
+        <v>17.167995</v>
       </c>
       <c r="O2">
-        <v>0.07967818296981505</v>
+        <v>0.09021166427595352</v>
       </c>
       <c r="P2">
-        <v>0.07967818296981505</v>
+        <v>0.09021166427595351</v>
       </c>
       <c r="Q2">
-        <v>39.66741956670799</v>
+        <v>47.79323733405</v>
       </c>
       <c r="R2">
-        <v>39.66741956670799</v>
+        <v>430.1391360064499</v>
       </c>
       <c r="S2">
-        <v>0.03119159845786185</v>
+        <v>0.03274282966846356</v>
       </c>
       <c r="T2">
-        <v>0.03119159845786185</v>
+        <v>0.03274282966846356</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>8.17947662576616</v>
+        <v>8.351570000000001</v>
       </c>
       <c r="H3">
-        <v>8.17947662576616</v>
+        <v>25.05471</v>
       </c>
       <c r="I3">
-        <v>0.3914697511322308</v>
+        <v>0.3629556103554933</v>
       </c>
       <c r="J3">
-        <v>0.3914697511322308</v>
+        <v>0.3629556103554933</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>41.2857627525154</v>
+        <v>41.286995</v>
       </c>
       <c r="N3">
-        <v>41.2857627525154</v>
+        <v>123.860985</v>
       </c>
       <c r="O3">
-        <v>0.678314811123241</v>
+        <v>0.6508451100847196</v>
       </c>
       <c r="P3">
-        <v>0.678314811123241</v>
+        <v>0.6508451100847196</v>
       </c>
       <c r="Q3">
-        <v>337.6959314111269</v>
+        <v>344.81122883215</v>
       </c>
       <c r="R3">
-        <v>337.6959314111269</v>
+        <v>3103.30105948935</v>
       </c>
       <c r="S3">
-        <v>0.2655397302997213</v>
+        <v>0.2362278841776876</v>
       </c>
       <c r="T3">
-        <v>0.2655397302997213</v>
+        <v>0.2362278841776876</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,60 +652,60 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>8.17947662576616</v>
+        <v>8.351570000000001</v>
       </c>
       <c r="H4">
-        <v>8.17947662576616</v>
+        <v>25.05471</v>
       </c>
       <c r="I4">
-        <v>0.3914697511322308</v>
+        <v>0.3629556103554933</v>
       </c>
       <c r="J4">
-        <v>0.3914697511322308</v>
+        <v>0.3629556103554933</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>14.7298034282571</v>
+        <v>0.06212466666666667</v>
       </c>
       <c r="N4">
-        <v>14.7298034282571</v>
+        <v>0.186374</v>
       </c>
       <c r="O4">
-        <v>0.242007005906944</v>
+        <v>0.0009793286122093212</v>
       </c>
       <c r="P4">
-        <v>0.242007005906944</v>
+        <v>0.000979328612209321</v>
       </c>
       <c r="Q4">
-        <v>120.4820828435592</v>
+        <v>0.5188385023933334</v>
       </c>
       <c r="R4">
-        <v>120.4820828435592</v>
+        <v>4.66954652154</v>
       </c>
       <c r="S4">
-        <v>0.09473842237464766</v>
+        <v>0.0003554528141830324</v>
       </c>
       <c r="T4">
-        <v>0.09473842237464766</v>
+        <v>0.0003554528141830324</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>23</v>
@@ -711,55 +714,55 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>10.9245502926553</v>
+        <v>8.351570000000001</v>
       </c>
       <c r="H5">
-        <v>10.9245502926553</v>
+        <v>25.05471</v>
       </c>
       <c r="I5">
-        <v>0.522848976770164</v>
+        <v>0.3629556103554933</v>
       </c>
       <c r="J5">
-        <v>0.522848976770164</v>
+        <v>0.3629556103554933</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.84962808521901</v>
+        <v>16.36419166666667</v>
       </c>
       <c r="N5">
-        <v>4.84962808521901</v>
+        <v>49.092575</v>
       </c>
       <c r="O5">
-        <v>0.07967818296981505</v>
+        <v>0.2579638970271176</v>
       </c>
       <c r="P5">
-        <v>0.07967818296981505</v>
+        <v>0.2579638970271176</v>
       </c>
       <c r="Q5">
-        <v>52.9800059176487</v>
+        <v>136.6666921975833</v>
       </c>
       <c r="R5">
-        <v>52.9800059176487</v>
+        <v>1230.00022977825</v>
       </c>
       <c r="S5">
-        <v>0.0416596564366737</v>
+        <v>0.0936294436951591</v>
       </c>
       <c r="T5">
-        <v>0.0416596564366737</v>
+        <v>0.0936294436951591</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,55 +776,55 @@
         <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>10.9245502926553</v>
+        <v>11.216696</v>
       </c>
       <c r="H6">
-        <v>10.9245502926553</v>
+        <v>33.650088</v>
       </c>
       <c r="I6">
-        <v>0.522848976770164</v>
+        <v>0.4874727437897329</v>
       </c>
       <c r="J6">
-        <v>0.522848976770164</v>
+        <v>0.487472743789733</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>41.2857627525154</v>
+        <v>5.722664999999999</v>
       </c>
       <c r="N6">
-        <v>41.2857627525154</v>
+        <v>17.167995</v>
       </c>
       <c r="O6">
-        <v>0.678314811123241</v>
+        <v>0.09021166427595352</v>
       </c>
       <c r="P6">
-        <v>0.678314811123241</v>
+        <v>0.09021166427595351</v>
       </c>
       <c r="Q6">
-        <v>451.0283915604895</v>
+        <v>64.18939361483999</v>
       </c>
       <c r="R6">
-        <v>451.0283915604895</v>
+        <v>577.7045425335599</v>
       </c>
       <c r="S6">
-        <v>0.3546562049238336</v>
+        <v>0.04397572750643729</v>
       </c>
       <c r="T6">
-        <v>0.3546562049238336</v>
+        <v>0.04397572750643729</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,60 +838,60 @@
         <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>10.9245502926553</v>
+        <v>11.216696</v>
       </c>
       <c r="H7">
-        <v>10.9245502926553</v>
+        <v>33.650088</v>
       </c>
       <c r="I7">
-        <v>0.522848976770164</v>
+        <v>0.4874727437897329</v>
       </c>
       <c r="J7">
-        <v>0.522848976770164</v>
+        <v>0.487472743789733</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>14.7298034282571</v>
+        <v>41.286995</v>
       </c>
       <c r="N7">
-        <v>14.7298034282571</v>
+        <v>123.860985</v>
       </c>
       <c r="O7">
-        <v>0.242007005906944</v>
+        <v>0.6508451100847196</v>
       </c>
       <c r="P7">
-        <v>0.242007005906944</v>
+        <v>0.6508451100847196</v>
       </c>
       <c r="Q7">
-        <v>160.9164783529212</v>
+        <v>463.10367166852</v>
       </c>
       <c r="R7">
-        <v>160.9164783529212</v>
+        <v>4167.93304501668</v>
       </c>
       <c r="S7">
-        <v>0.1265331154096567</v>
+        <v>0.317269251595129</v>
       </c>
       <c r="T7">
-        <v>0.1265331154096567</v>
+        <v>0.3172692515951291</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>23</v>
@@ -897,60 +900,60 @@
         <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.79024805968098</v>
+        <v>11.216696</v>
       </c>
       <c r="H8">
-        <v>1.79024805968098</v>
+        <v>33.650088</v>
       </c>
       <c r="I8">
-        <v>0.08568127209760523</v>
+        <v>0.4874727437897329</v>
       </c>
       <c r="J8">
-        <v>0.08568127209760523</v>
+        <v>0.487472743789733</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>4.84962808521901</v>
+        <v>0.06212466666666667</v>
       </c>
       <c r="N8">
-        <v>4.84962808521901</v>
+        <v>0.186374</v>
       </c>
       <c r="O8">
-        <v>0.07967818296981505</v>
+        <v>0.0009793286122093212</v>
       </c>
       <c r="P8">
-        <v>0.07967818296981505</v>
+        <v>0.000979328612209321</v>
       </c>
       <c r="Q8">
-        <v>8.682037269737718</v>
+        <v>0.6968335001013333</v>
       </c>
       <c r="R8">
-        <v>8.682037269737718</v>
+        <v>6.271501500912</v>
       </c>
       <c r="S8">
-        <v>0.006826928075279498</v>
+        <v>0.0004773960056654692</v>
       </c>
       <c r="T8">
-        <v>0.006826928075279498</v>
+        <v>0.0004773960056654691</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>23</v>
@@ -959,55 +962,55 @@
         <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.79024805968098</v>
+        <v>11.216696</v>
       </c>
       <c r="H9">
-        <v>1.79024805968098</v>
+        <v>33.650088</v>
       </c>
       <c r="I9">
-        <v>0.08568127209760523</v>
+        <v>0.4874727437897329</v>
       </c>
       <c r="J9">
-        <v>0.08568127209760523</v>
+        <v>0.487472743789733</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>41.2857627525154</v>
+        <v>16.36419166666667</v>
       </c>
       <c r="N9">
-        <v>41.2857627525154</v>
+        <v>49.092575</v>
       </c>
       <c r="O9">
-        <v>0.678314811123241</v>
+        <v>0.2579638970271176</v>
       </c>
       <c r="P9">
-        <v>0.678314811123241</v>
+        <v>0.2579638970271176</v>
       </c>
       <c r="Q9">
-        <v>73.91175666013997</v>
+        <v>183.5521632107333</v>
       </c>
       <c r="R9">
-        <v>73.91175666013997</v>
+        <v>1651.9694688966</v>
       </c>
       <c r="S9">
-        <v>0.05811887589968611</v>
+        <v>0.1257503686825011</v>
       </c>
       <c r="T9">
-        <v>0.05811887589968611</v>
+        <v>0.1257503686825011</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,55 +1024,241 @@
         <v>24</v>
       </c>
       <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>3.441627666666667</v>
+      </c>
+      <c r="H10">
+        <v>10.324883</v>
+      </c>
+      <c r="I10">
+        <v>0.1495716458547737</v>
+      </c>
+      <c r="J10">
+        <v>0.1495716458547737</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>5.722664999999999</v>
+      </c>
+      <c r="N10">
+        <v>17.167995</v>
+      </c>
+      <c r="O10">
+        <v>0.09021166427595352</v>
+      </c>
+      <c r="P10">
+        <v>0.09021166427595351</v>
+      </c>
+      <c r="Q10">
+        <v>19.695282191065</v>
+      </c>
+      <c r="R10">
+        <v>177.257539719585</v>
+      </c>
+      <c r="S10">
+        <v>0.01349310710105266</v>
+      </c>
+      <c r="T10">
+        <v>0.01349310710105266</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
         <v>22</v>
       </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>1.79024805968098</v>
-      </c>
-      <c r="H10">
-        <v>1.79024805968098</v>
-      </c>
-      <c r="I10">
-        <v>0.08568127209760523</v>
-      </c>
-      <c r="J10">
-        <v>0.08568127209760523</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>14.7298034282571</v>
-      </c>
-      <c r="N10">
-        <v>14.7298034282571</v>
-      </c>
-      <c r="O10">
-        <v>0.242007005906944</v>
-      </c>
-      <c r="P10">
-        <v>0.242007005906944</v>
-      </c>
-      <c r="Q10">
-        <v>26.37000200691952</v>
-      </c>
-      <c r="R10">
-        <v>26.37000200691952</v>
-      </c>
-      <c r="S10">
-        <v>0.02073546812263962</v>
-      </c>
-      <c r="T10">
-        <v>0.02073546812263962</v>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>3.441627666666667</v>
+      </c>
+      <c r="H11">
+        <v>10.324883</v>
+      </c>
+      <c r="I11">
+        <v>0.1495716458547737</v>
+      </c>
+      <c r="J11">
+        <v>0.1495716458547737</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>41.286995</v>
+      </c>
+      <c r="N11">
+        <v>123.860985</v>
+      </c>
+      <c r="O11">
+        <v>0.6508451100847196</v>
+      </c>
+      <c r="P11">
+        <v>0.6508451100847196</v>
+      </c>
+      <c r="Q11">
+        <v>142.0944642655283</v>
+      </c>
+      <c r="R11">
+        <v>1278.850178389755</v>
+      </c>
+      <c r="S11">
+        <v>0.09734797431190288</v>
+      </c>
+      <c r="T11">
+        <v>0.09734797431190288</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>3.441627666666667</v>
+      </c>
+      <c r="H12">
+        <v>10.324883</v>
+      </c>
+      <c r="I12">
+        <v>0.1495716458547737</v>
+      </c>
+      <c r="J12">
+        <v>0.1495716458547737</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M12">
+        <v>0.06212466666666667</v>
+      </c>
+      <c r="N12">
+        <v>0.186374</v>
+      </c>
+      <c r="O12">
+        <v>0.0009793286122093212</v>
+      </c>
+      <c r="P12">
+        <v>0.000979328612209321</v>
+      </c>
+      <c r="Q12">
+        <v>0.2138099715824445</v>
+      </c>
+      <c r="R12">
+        <v>1.924289744242</v>
+      </c>
+      <c r="S12">
+        <v>0.0001464797923608196</v>
+      </c>
+      <c r="T12">
+        <v>0.0001464797923608196</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>3.441627666666667</v>
+      </c>
+      <c r="H13">
+        <v>10.324883</v>
+      </c>
+      <c r="I13">
+        <v>0.1495716458547737</v>
+      </c>
+      <c r="J13">
+        <v>0.1495716458547737</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>16.36419166666667</v>
+      </c>
+      <c r="N13">
+        <v>49.092575</v>
+      </c>
+      <c r="O13">
+        <v>0.2579638970271176</v>
+      </c>
+      <c r="P13">
+        <v>0.2579638970271176</v>
+      </c>
+      <c r="Q13">
+        <v>56.31945478263611</v>
+      </c>
+      <c r="R13">
+        <v>506.875093043725</v>
+      </c>
+      <c r="S13">
+        <v>0.03858408464945734</v>
+      </c>
+      <c r="T13">
+        <v>0.03858408464945734</v>
       </c>
     </row>
   </sheetData>
